--- a/Descargas/R15_13º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Mayo.xlsx
+++ b/Descargas/R15_13º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Mayo.xlsx
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="B46" s="65">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B50" s="65">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B53" s="65">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="B61" s="65">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="B68" s="65">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="B82" s="65">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
